--- a/Main Assesment/Data/bb10.xlsx
+++ b/Main Assesment/Data/bb10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/wsp25_ic_ac_uk/Documents/Documents/bb data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonporteus/Documents/GitHub/ssb_s5/Main Assesment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95D44AE-311A-4E63-A7C3-E1D07634DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B4F80-CABF-F248-BF74-5623893E302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="885" windowWidth="14400" windowHeight="13170" xr2:uid="{42A4E558-E23F-45F0-BDBE-11D237685B66}"/>
+    <workbookView xWindow="15520" yWindow="3460" windowWidth="14400" windowHeight="13180" xr2:uid="{42A4E558-E23F-45F0-BDBE-11D237685B66}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -617,412 +616,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F34D05C-274E-4EA5-AABC-6719B3BCE241}">
-  <dimension ref="A3:O22"/>
+  <dimension ref="A3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="223" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>79371</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>43359</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>22104</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>11092</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>5532</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2771</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1399</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>701</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>354</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>177</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>88</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="4"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>78554</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>42853</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>21797</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>11000</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>5542</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2773</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>1383</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>690</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>348</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>177</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>86</v>
       </c>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>78890</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>42540</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>21831</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>11006</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>5493</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>2758</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>1386</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>699</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>361</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>174</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>91</v>
       </c>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>78016</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>42391</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>21501</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>10966</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>5531</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2779</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>1379</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>698</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>358</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>180</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>93</v>
       </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>78031</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>42311</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>21846</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>11074</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>5486</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>2787</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>1384</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>694</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>358</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>171</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>85</v>
       </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>77017</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>41860</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>21650</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>10940</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>5426</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>2801</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>1369</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>696</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>347</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>175</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>90</v>
       </c>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>77147</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>41914</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>21300</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>10631</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>5352</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>2653</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>1325</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>664</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>331</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>164</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>84</v>
       </c>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>76513</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>42094</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>21182</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>10658</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>5314</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>2657</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>1323</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>661</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>328</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>165</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>86</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>AVERAGE(B15:B22)</f>
+        <v>77942.375</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:L23" si="0">AVERAGE(C15:C22)</f>
+        <v>42415.25</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>21651.375</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>10920.875</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5459.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2747.375</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1368.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>687.875</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>348.125</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>172.875</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>87.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>STDEV(B15:B22)</f>
+        <v>989.83230000988408</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" si="1">STDEV(C15:C22)</f>
+        <v>503.14205605517469</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>307.66676662537714</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>177.99312787697332</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>86.889091868394416</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>58.368135876643223</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>28.685486624025447</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>16.030662583222902</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>12.506426919216945</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>5.7925444692787149</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>3.1819805153394638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f>B24/B23</f>
+        <v>1.2699539884560665E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:L25" si="2">C24/C23</f>
+        <v>1.1862291417713552E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1.4210033617974708E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1.6298431021046694E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.5915210526310911E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2.1245056054103727E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>2.0961261690921044E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2.3304615785168674E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>3.5925104256278477E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>3.3507126358806739E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>3.6210304584232876E-2</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(B25:L25)</f>
+        <v>2.2012634108828918E-2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B15:L22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>